--- a/results/statistics_by_versions.xlsx
+++ b/results/statistics_by_versions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C5EB2-0F94-46B2-A232-AAB189B74A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A7E3D-0BB9-464A-838F-22309D3A71C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B267" workbookViewId="0">
-      <selection activeCell="J285" sqref="J285"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results/statistics_by_versions.xlsx
+++ b/results/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A7E3D-0BB9-464A-838F-22309D3A71C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90574F8-D8D3-4711-B134-1B1A7EC8166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="125">
   <si>
     <t>Version</t>
   </si>
@@ -221,203 +221,206 @@
     <t>3.7(Neural Net)</t>
   </si>
   <si>
-    <t>With name, paragraph, language, synonym
+    <t>3.8(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.8(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.8(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.8(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.8(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.9(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.9(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.9(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.9(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.9(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.10(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.10(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.10(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.10(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.10(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.11(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.11(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.11(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.11(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.11(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.12(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.12(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.12(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.12(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.12(Neural Net)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Without keywords</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Sheet with the same results like in the Eval (binary) just differently written to make it easier to visualize</t>
+  </si>
+  <si>
+    <t>3.13(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.13(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.13(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.14(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.14(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.14(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.15(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.15(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.15(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.16(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.16(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.16(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.17(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.17(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.17(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.18(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.18(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.18(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.19(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.19(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.19(LightGBM)</t>
+  </si>
+  <si>
+    <t>CZI precision</t>
+  </si>
+  <si>
+    <t>CZI recall</t>
+  </si>
+  <si>
+    <t>CZI F1 score</t>
+  </si>
+  <si>
+    <t>With name, paragraph, language, synonym and author
 and their missing indicator</t>
   </si>
   <si>
-    <t>3.8(Logistic regression)</t>
-  </si>
-  <si>
-    <t>3.8(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.8(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.8(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.8(Neural Net)</t>
-  </si>
-  <si>
-    <t>3.9(Logistic regression)</t>
-  </si>
-  <si>
-    <t>3.9(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.9(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.9(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.9(Neural Net)</t>
-  </si>
-  <si>
-    <t>3.10(Logistic regression)</t>
-  </si>
-  <si>
-    <t>3.10(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.10(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.10(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.10(Neural Net)</t>
-  </si>
-  <si>
-    <t>3.11(Logistic regression)</t>
-  </si>
-  <si>
-    <t>3.11(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.11(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.11(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.11(Neural Net)</t>
-  </si>
-  <si>
-    <t>3.12(Logistic regression)</t>
-  </si>
-  <si>
-    <t>3.12(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.12(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.12(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.12(Neural Net)</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>XGBoost</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
-  </si>
-  <si>
-    <t>Without keywords</t>
-  </si>
-  <si>
-    <t>Visualization</t>
-  </si>
-  <si>
-    <t>Sheet with the same results like in the Eval (binary) just differently written to make it easier to visualize</t>
-  </si>
-  <si>
-    <t>3.13(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.13(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.13(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.14(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.14(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.14(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.15(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.15(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.15(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.16(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.16(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.16(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.17(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.17(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.17(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.18(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.18(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.18(LightGBM)</t>
-  </si>
-  <si>
-    <t>3.19(Random Forest)</t>
-  </si>
-  <si>
-    <t>3.19(XGBoost)</t>
-  </si>
-  <si>
-    <t>3.19(LightGBM)</t>
-  </si>
-  <si>
-    <t>CZI precision</t>
-  </si>
-  <si>
-    <t>CZI recall</t>
-  </si>
-  <si>
-    <t>CZI F1 score</t>
+    <t>All features (from here includes all features without keywords)</t>
   </si>
 </sst>
 </file>
@@ -796,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="C262" workbookViewId="0">
+      <selection activeCell="L274" sqref="L274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,13 +831,13 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>122</v>
-      </c>
-      <c r="J1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3239,7 +3242,7 @@
     </row>
     <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3599,7 +3602,7 @@
     </row>
     <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -3959,7 +3962,7 @@
     </row>
     <row r="158" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4084,7 +4087,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B165">
         <v>0.71</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B166">
         <v>0.88</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B167">
         <v>0.87</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B168">
         <v>0.87</v>
@@ -4176,7 +4179,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B169">
         <v>0.85</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B171">
         <v>0.67</v>
@@ -4227,7 +4230,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B172">
         <v>0.87</v>
@@ -4250,7 +4253,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B173">
         <v>0.87</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B174">
         <v>0.87</v>
@@ -4296,7 +4299,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B175">
         <v>0.82</v>
@@ -4319,12 +4322,12 @@
     </row>
     <row r="176" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B177">
         <v>0.7</v>
@@ -4347,7 +4350,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B178">
         <v>0.89</v>
@@ -4370,7 +4373,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B179">
         <v>0.87</v>
@@ -4393,7 +4396,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B180">
         <v>0.87</v>
@@ -4416,7 +4419,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B181">
         <v>0.84</v>
@@ -4444,7 +4447,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B183">
         <v>0.64</v>
@@ -4467,7 +4470,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B184">
         <v>0.87</v>
@@ -4490,7 +4493,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B185">
         <v>0.87</v>
@@ -4513,7 +4516,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B186">
         <v>0.87</v>
@@ -4536,7 +4539,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B187">
         <v>0.85</v>
@@ -4564,7 +4567,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B189">
         <v>0.59</v>
@@ -4587,7 +4590,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B190">
         <v>0.86</v>
@@ -4610,7 +4613,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B191">
         <v>0.87</v>
@@ -4633,7 +4636,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B192">
         <v>0.87</v>
@@ -4656,7 +4659,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B193">
         <v>0.83</v>
@@ -4679,12 +4682,12 @@
     </row>
     <row r="194" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B195">
         <v>0.63</v>
@@ -4707,7 +4710,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B196">
         <v>0.88</v>
@@ -4730,7 +4733,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B197">
         <v>0.88</v>
@@ -4753,7 +4756,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B198">
         <v>0.87</v>
@@ -4776,7 +4779,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B199">
         <v>0.86</v>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B201">
         <v>0.72</v>
@@ -4827,7 +4830,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B202">
         <v>0.88</v>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B203">
         <v>0.87</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B204">
         <v>0.87</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B205">
         <v>0.85</v>
@@ -4924,7 +4927,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B207">
         <v>0.67</v>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B208">
         <v>0.86</v>
@@ -4970,7 +4973,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B209">
         <v>0.88</v>
@@ -4993,7 +4996,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B210">
         <v>0.87</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B211">
         <v>0.82</v>
@@ -5039,12 +5042,12 @@
     </row>
     <row r="212" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B213">
         <v>0.71</v>
@@ -5067,7 +5070,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B214">
         <v>0.88</v>
@@ -5090,7 +5093,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B215">
         <v>0.87</v>
@@ -5113,7 +5116,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B216">
         <v>0.87</v>
@@ -5136,7 +5139,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B217">
         <v>0.85</v>
@@ -5164,7 +5167,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B219">
         <v>0.7</v>
@@ -5187,7 +5190,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B220">
         <v>0.88</v>
@@ -5210,7 +5213,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B221">
         <v>0.88</v>
@@ -5233,7 +5236,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B222">
         <v>0.86</v>
@@ -5256,7 +5259,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B223">
         <v>0.85</v>
@@ -5284,7 +5287,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B225">
         <v>0.67</v>
@@ -5307,7 +5310,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B226">
         <v>0.86</v>
@@ -5330,7 +5333,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B227">
         <v>0.87</v>
@@ -5353,7 +5356,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B228">
         <v>0.86</v>
@@ -5376,7 +5379,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B229">
         <v>0.82</v>
@@ -5399,12 +5402,12 @@
     </row>
     <row r="230" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B231">
         <v>0.7</v>
@@ -5427,7 +5430,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B232">
         <v>0.88</v>
@@ -5450,7 +5453,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B233">
         <v>0.88</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B234">
         <v>0.86</v>
@@ -5496,7 +5499,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B235">
         <v>0.85</v>
@@ -5524,7 +5527,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B237">
         <v>0.64</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B238">
         <v>0.89</v>
@@ -5570,7 +5573,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B239">
         <v>0.88</v>
@@ -5593,7 +5596,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B240">
         <v>0.88</v>
@@ -5616,7 +5619,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B241">
         <v>0.85</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B243">
         <v>0.59</v>
@@ -5667,7 +5670,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B244">
         <v>0.88</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B245">
         <v>0.88</v>
@@ -5713,7 +5716,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B246">
         <v>0.88</v>
@@ -5736,7 +5739,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B247">
         <v>0.8</v>
@@ -5759,12 +5762,12 @@
     </row>
     <row r="248" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B249">
         <v>0.64</v>
@@ -5787,7 +5790,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B250">
         <v>0.89</v>
@@ -5810,7 +5813,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B251">
         <v>0.87</v>
@@ -5833,7 +5836,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B252">
         <v>0.87</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B253">
         <v>0.86</v>
@@ -5877,14 +5880,14 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B255">
         <v>0.88</v>
@@ -5907,7 +5910,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B256">
         <v>0.86</v>
@@ -5930,7 +5933,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B257">
         <v>0.86</v>
@@ -5958,7 +5961,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B259">
         <v>0.89</v>
@@ -5981,7 +5984,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B260">
         <v>0.87</v>
@@ -6004,7 +6007,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B261">
         <v>0.87</v>
@@ -6032,7 +6035,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B263">
         <v>0.88</v>
@@ -6055,7 +6058,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B264">
         <v>0.87</v>
@@ -6078,7 +6081,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B265">
         <v>0.86</v>
@@ -6106,7 +6109,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B267">
         <v>0.89</v>
@@ -6129,7 +6132,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B268">
         <v>0.87</v>
@@ -6152,7 +6155,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B269">
         <v>0.86</v>
@@ -6180,7 +6183,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B271">
         <v>0.81</v>
@@ -6203,7 +6206,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B272">
         <v>0.79</v>
@@ -6226,7 +6229,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B273">
         <v>0.77</v>
@@ -6254,7 +6257,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B275">
         <v>0.89</v>
@@ -6277,7 +6280,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B276">
         <v>0.88</v>
@@ -6300,7 +6303,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B277">
         <v>0.88</v>
@@ -6337,7 +6340,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B279">
         <v>0.81</v>
@@ -6360,7 +6363,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B280">
         <v>0.8</v>
@@ -6392,7 +6395,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B281">
         <v>0.82</v>
@@ -6445,13 +6448,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6460,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6468,10 +6471,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>0.89</v>
@@ -6488,10 +6491,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>0.88</v>
@@ -6508,10 +6511,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>0.88</v>
@@ -6528,10 +6531,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>0.86</v>
@@ -6548,10 +6551,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>0.86</v>
@@ -6568,10 +6571,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>0.85</v>
@@ -6588,10 +6591,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
         <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
       </c>
       <c r="D8">
         <v>0.88</v>
@@ -6608,10 +6611,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>0.89</v>
@@ -6628,10 +6631,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>0.87</v>
@@ -6648,10 +6651,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>0.87</v>
@@ -6668,10 +6671,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>0.86</v>
@@ -6688,10 +6691,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>0.87</v>
@@ -6708,10 +6711,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>0.87</v>
@@ -6728,10 +6731,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>0.88</v>
@@ -6748,10 +6751,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>0.85</v>
@@ -6768,10 +6771,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>0.85</v>
@@ -6788,10 +6791,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>0.87</v>
@@ -6808,10 +6811,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>0.86</v>
@@ -6828,10 +6831,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20">
         <v>0.85</v>
@@ -6848,10 +6851,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21">
         <v>0.85</v>
@@ -6868,10 +6871,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22">
         <v>0.87</v>
@@ -6885,13 +6888,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>0.89</v>
@@ -6905,13 +6908,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>0.89</v>
@@ -6925,13 +6928,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25">
         <v>0.86</v>
@@ -6945,13 +6948,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26">
         <v>0.87</v>
@@ -6965,13 +6968,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27">
         <v>0.87</v>
@@ -6985,13 +6988,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>0.87</v>
@@ -7005,13 +7008,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
         <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
       </c>
       <c r="D29">
         <v>0.9</v>
@@ -7025,13 +7028,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>0.87</v>
@@ -7045,13 +7048,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>0.87</v>
@@ -7065,13 +7068,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>0.86</v>
@@ -7085,13 +7088,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>0.88</v>
@@ -7105,13 +7108,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <v>0.86</v>
@@ -7125,13 +7128,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35">
         <v>0.87</v>
@@ -7145,13 +7148,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <v>0.88</v>
@@ -7165,13 +7168,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37">
         <v>0.86</v>
@@ -7185,13 +7188,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>0.86</v>
@@ -7205,13 +7208,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39">
         <v>0.86</v>
@@ -7225,13 +7228,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40">
         <v>0.86</v>
@@ -7245,13 +7248,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <v>0.87</v>
@@ -7265,13 +7268,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42">
         <v>0.87</v>
@@ -7285,13 +7288,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43">
         <v>0.88</v>
@@ -7350,10 +7353,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/results/statistics_by_versions.xlsx
+++ b/results/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90574F8-D8D3-4711-B134-1B1A7EC8166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB5360-ACA9-4218-8720-46B5A4888A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C262" workbookViewId="0">
-      <selection activeCell="L274" sqref="L274"/>
+    <sheetView tabSelected="1" topLeftCell="C263" workbookViewId="0">
+      <selection activeCell="L279" sqref="L279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6416,10 +6416,10 @@
         <v>0.84</v>
       </c>
       <c r="H281">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I281">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="J281">
         <v>0.85</v>

--- a/results/statistics_by_versions.xlsx
+++ b/results/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB5360-ACA9-4218-8720-46B5A4888A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41DD091-D245-41C5-84DF-627900F65B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C263" workbookViewId="0">
-      <selection activeCell="L279" sqref="L279"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="J280" sqref="J280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6186,22 +6186,22 @@
         <v>111</v>
       </c>
       <c r="B271">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="C271">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="D271">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="E271">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="F271">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="G271">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -6209,22 +6209,22 @@
         <v>112</v>
       </c>
       <c r="B272">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="C272">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D272">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="E272">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="F272">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G272">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -6232,22 +6232,22 @@
         <v>113</v>
       </c>
       <c r="B273">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="C273">
         <v>0.95</v>
       </c>
       <c r="D273">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="E273">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="F273">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G273">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -6323,15 +6323,6 @@
       <c r="G277">
         <v>0.91</v>
       </c>
-      <c r="H277">
-        <v>0.78</v>
-      </c>
-      <c r="I277">
-        <v>0.94</v>
-      </c>
-      <c r="J277">
-        <v>0.85</v>
-      </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
@@ -6343,22 +6334,22 @@
         <v>117</v>
       </c>
       <c r="B279">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
       <c r="C279">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="D279">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="E279">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F279">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
       <c r="G279">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -6366,31 +6357,31 @@
         <v>118</v>
       </c>
       <c r="B280">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C280">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D280">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="E280">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="F280">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="G280">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="H280">
         <v>0.82</v>
       </c>
       <c r="I280">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="J280">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -6398,28 +6389,28 @@
         <v>119</v>
       </c>
       <c r="B281">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="C281">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="D281">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="E281">
+        <v>0.92</v>
+      </c>
+      <c r="F281">
+        <v>0.93</v>
+      </c>
+      <c r="G281">
+        <v>0.92</v>
+      </c>
+      <c r="H281">
         <v>0.81</v>
       </c>
-      <c r="F281">
-        <v>0.87</v>
-      </c>
-      <c r="G281">
-        <v>0.84</v>
-      </c>
-      <c r="H281">
-        <v>0.83</v>
-      </c>
       <c r="I281">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="J281">
         <v>0.85</v>
